--- a/cw/reportfiles/reportready-epochs-5hidden.xlsx
+++ b/cw/reportfiles/reportready-epochs-5hidden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ardadogan/Documents/code/AI/semester2/cw/reportfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB90BE2-0176-B143-9945-946F237178BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB57076-81BE-7946-9422-D937FE630F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Effect of number of epochs on MSE</a:t>
+              <a:t>Effect of number of epochs on MSE (5 hidden nodes)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
